--- a/500PlusPlan/ColoradoRiverBigCapitalProjectCosts.xlsx
+++ b/500PlusPlan/ColoradoRiverBigCapitalProjectCosts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverCoding2\500PlusPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAF9A55-708A-4B8A-BBC1-376A7F1F2794}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08287FB-CC4C-46A2-B308-927E8AC06881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6230" xr2:uid="{06642DB5-BB09-40F0-A813-E248E9050E64}"/>
   </bookViews>
@@ -78,9 +78,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -141,13 +141,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -477,7 +477,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
